--- a/spliced/falling/2023-03-25_18-03-19/data_selected.xlsx
+++ b/spliced/falling/2023-03-25_18-03-19/data_selected.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1035,34 +1035,6 @@
         <v>0.058643065392971</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>2000</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>falling</t>
-        </is>
-      </c>
-      <c r="C22" t="n">
-        <v>2.46818006038666</v>
-      </c>
-      <c r="D22" t="n">
-        <v>7.359129667282104</v>
-      </c>
-      <c r="E22" t="n">
-        <v>-4.541467189788817</v>
-      </c>
-      <c r="F22" t="n">
-        <v>-0.0207694191485643</v>
-      </c>
-      <c r="G22" t="n">
-        <v>-0.0707076489925384</v>
-      </c>
-      <c r="H22" t="n">
-        <v>-0.09605856239795681</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/spliced/falling/2023-03-25_18-03-19/data_selected.xlsx
+++ b/spliced/falling/2023-03-25_18-03-19/data_selected.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,22 +485,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-3.03490149974823</v>
+        <v>-2.872348141670227</v>
       </c>
       <c r="D2" t="n">
-        <v>8.900234460830688</v>
+        <v>9.113740730285643</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.314584940671921</v>
+        <v>-1.157746517658234</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0368046313524246</v>
+        <v>-0.007177666760981</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0103847095742821</v>
+        <v>0.0068722339347004</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.0549778714776039</v>
+        <v>0.0154243474826216</v>
       </c>
     </row>
     <row r="3">
@@ -513,22 +513,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-2.981666660308838</v>
+        <v>-2.973343849182129</v>
       </c>
       <c r="D3" t="n">
-        <v>8.602373123168945</v>
+        <v>9.098371124267578</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.842280006408692</v>
+        <v>-1.108406949043274</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0694859251379966</v>
+        <v>-0.0125227374956011</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.2252565622329712</v>
+        <v>0.0532979927957057</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1149953827261924</v>
+        <v>-0.0287106670439243</v>
       </c>
     </row>
     <row r="4">
@@ -541,22 +541,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-3.369193434715273</v>
+        <v>-3.070270323753357</v>
       </c>
       <c r="D4" t="n">
-        <v>7.965732479095457</v>
+        <v>9.036239910125733</v>
       </c>
       <c r="E4" t="n">
-        <v>-2.964559459686284</v>
+        <v>-1.239402884244919</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.1847867369651794</v>
+        <v>-0.0233655963093042</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.4732678532600403</v>
+        <v>0.0858265683054924</v>
       </c>
       <c r="H4" t="n">
-        <v>0.2860376536846161</v>
+        <v>0.0064140851609408</v>
       </c>
     </row>
     <row r="5">
@@ -569,22 +569,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-3.835544395446778</v>
+        <v>-3.125558137893677</v>
       </c>
       <c r="D5" t="n">
-        <v>7.139311599731442</v>
+        <v>8.97771692276001</v>
       </c>
       <c r="E5" t="n">
-        <v>-4.718908405303957</v>
+        <v>-1.272288262844086</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2762638032436371</v>
+        <v>-0.0406225398182868</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.4453207552433014</v>
+        <v>-0.0181732401251792</v>
       </c>
       <c r="H5" t="n">
-        <v>0.3353650271892547</v>
+        <v>0.0048869219608604</v>
       </c>
     </row>
     <row r="6">
@@ -597,22 +597,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-3.949358296394353</v>
+        <v>-3.148761796951294</v>
       </c>
       <c r="D6" t="n">
-        <v>6.115968346595764</v>
+        <v>8.941205215454101</v>
       </c>
       <c r="E6" t="n">
-        <v>-5.519280028343203</v>
+        <v>-1.218037897348404</v>
       </c>
       <c r="F6" t="n">
-        <v>0.3854559659957886</v>
+        <v>0.0109955742955207</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.3795000314712524</v>
+        <v>-0.015118914656341</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1736384481191635</v>
+        <v>0.0439822971820831</v>
       </c>
     </row>
     <row r="7">
@@ -625,22 +625,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-6.036023616790772</v>
+        <v>-3.052603721618652</v>
       </c>
       <c r="D7" t="n">
-        <v>5.773025989532471</v>
+        <v>8.98315830230713</v>
       </c>
       <c r="E7" t="n">
-        <v>-6.258669376373291</v>
+        <v>-1.222838401794433</v>
       </c>
       <c r="F7" t="n">
-        <v>0.2231185287237167</v>
+        <v>0.0197004042565822</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.2501493096351623</v>
+        <v>-0.0032070425804704</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.5458080768585205</v>
+        <v>0.0224492978304624</v>
       </c>
     </row>
     <row r="8">
@@ -653,22 +653,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-5.327067399024963</v>
+        <v>-3.015902495384216</v>
       </c>
       <c r="D8" t="n">
-        <v>5.096813631057738</v>
+        <v>9.072346258163453</v>
       </c>
       <c r="E8" t="n">
-        <v>-6.893664145469667</v>
+        <v>-1.212291812896728</v>
       </c>
       <c r="F8" t="n">
-        <v>1.827708840370178</v>
+        <v>0.0274889357388019</v>
       </c>
       <c r="G8" t="n">
-        <v>2.010510206222534</v>
+        <v>0.0001527163112768</v>
       </c>
       <c r="H8" t="n">
-        <v>-3.499036073684692</v>
+        <v>0.0108428578823804</v>
       </c>
     </row>
     <row r="9">
@@ -681,22 +681,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>-5.896905612945559</v>
+        <v>-3.051667261123657</v>
       </c>
       <c r="D9" t="n">
-        <v>2.338003730773914</v>
+        <v>9.041837882995607</v>
       </c>
       <c r="E9" t="n">
-        <v>-5.030807352066033</v>
+        <v>-1.251752722263336</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.6444628238677979</v>
+        <v>0.0339030213654041</v>
       </c>
       <c r="G9" t="n">
-        <v>1.021672129631042</v>
+        <v>0.0074830991216003</v>
       </c>
       <c r="H9" t="n">
-        <v>0.2196060568094253</v>
+        <v>-0.0473420582711696</v>
       </c>
     </row>
     <row r="10">
@@ -709,22 +709,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>-1.743859815597524</v>
+        <v>-3.03490149974823</v>
       </c>
       <c r="D10" t="n">
-        <v>8.946796488761919</v>
+        <v>8.900234460830688</v>
       </c>
       <c r="E10" t="n">
-        <v>5.909892201423672</v>
+        <v>-1.314584940671921</v>
       </c>
       <c r="F10" t="n">
-        <v>-2.739730596542358</v>
+        <v>0.0368046313524246</v>
       </c>
       <c r="G10" t="n">
-        <v>0.935998260974884</v>
+        <v>0.0103847095742821</v>
       </c>
       <c r="H10" t="n">
-        <v>-3.772856473922729</v>
+        <v>-0.0549778714776039</v>
       </c>
     </row>
     <row r="11">
@@ -737,22 +737,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>-1.42204113006592</v>
+        <v>-2.981666660308838</v>
       </c>
       <c r="D11" t="n">
-        <v>18.078337097168</v>
+        <v>8.602373123168945</v>
       </c>
       <c r="E11" t="n">
-        <v>5.143125724792469</v>
+        <v>-1.842280006408692</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.8069530129432678</v>
+        <v>0.0694859251379966</v>
       </c>
       <c r="G11" t="n">
-        <v>1.669800162315369</v>
+        <v>-0.2252565622329712</v>
       </c>
       <c r="H11" t="n">
-        <v>-0.4091269969940185</v>
+        <v>0.1149953827261924</v>
       </c>
     </row>
     <row r="12">
@@ -765,22 +765,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>1.667438387870793</v>
+        <v>-3.369193434715273</v>
       </c>
       <c r="D12" t="n">
-        <v>5.428582191467266</v>
+        <v>7.965732479095457</v>
       </c>
       <c r="E12" t="n">
-        <v>1.3269031047821</v>
+        <v>-2.964559459686284</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0166460778564214</v>
+        <v>-0.1847867369651794</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.098960168659687</v>
+        <v>-0.4732678532600403</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0592539273202419</v>
+        <v>0.2860376536846161</v>
       </c>
     </row>
     <row r="13">
@@ -793,22 +793,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.7794665813445962</v>
+        <v>-3.835544395446778</v>
       </c>
       <c r="D13" t="n">
-        <v>4.995001316070575</v>
+        <v>7.139311599731442</v>
       </c>
       <c r="E13" t="n">
-        <v>-3.324089527130142</v>
+        <v>-4.718908405303957</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.0222965814173221</v>
+        <v>0.2762638032436371</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0245873257517814</v>
+        <v>-0.4453207552433014</v>
       </c>
       <c r="H13" t="n">
-        <v>-0.1383609771728515</v>
+        <v>0.3353650271892547</v>
       </c>
     </row>
     <row r="14">
@@ -821,22 +821,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3.068378543853783</v>
+        <v>-3.949358296394353</v>
       </c>
       <c r="D14" t="n">
-        <v>7.068177723884584</v>
+        <v>6.115968346595764</v>
       </c>
       <c r="E14" t="n">
-        <v>-4.896264028549195</v>
+        <v>-5.519280028343203</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0693332031369209</v>
+        <v>0.3854559659957886</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1020144969224929</v>
+        <v>-0.3795000314712524</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0342084541916847</v>
+        <v>0.1736384481191635</v>
       </c>
     </row>
     <row r="15">
@@ -849,22 +849,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3.911060714721674</v>
+        <v>-6.036023616790772</v>
       </c>
       <c r="D15" t="n">
-        <v>7.258105087280274</v>
+        <v>5.773025989532471</v>
       </c>
       <c r="E15" t="n">
-        <v>-4.906297397613526</v>
+        <v>-6.258669376373291</v>
       </c>
       <c r="F15" t="n">
-        <v>0.050854530185461</v>
+        <v>0.2231185287237167</v>
       </c>
       <c r="G15" t="n">
-        <v>0.3074179291725158</v>
+        <v>-0.2501493096351623</v>
       </c>
       <c r="H15" t="n">
-        <v>0.2310597747564315</v>
+        <v>-0.5458080768585205</v>
       </c>
     </row>
     <row r="16">
@@ -877,22 +877,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3.277458310127258</v>
+        <v>-5.327067399024963</v>
       </c>
       <c r="D16" t="n">
-        <v>7.035428524017331</v>
+        <v>5.096813631057738</v>
       </c>
       <c r="E16" t="n">
-        <v>-4.093589890003198</v>
+        <v>-6.893664145469667</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0531452745199203</v>
+        <v>1.827708840370178</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.1438587605953216</v>
+        <v>2.010510206222534</v>
       </c>
       <c r="H16" t="n">
-        <v>-0.0389426611363887</v>
+        <v>-3.499036073684692</v>
       </c>
     </row>
     <row r="17">
@@ -905,22 +905,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3.418862581253053</v>
+        <v>-5.896905612945559</v>
       </c>
       <c r="D17" t="n">
-        <v>6.974825143814088</v>
+        <v>2.338003730773914</v>
       </c>
       <c r="E17" t="n">
-        <v>-4.04072964191437</v>
+        <v>-5.030807352066033</v>
       </c>
       <c r="F17" t="n">
-        <v>0.0024434609804302</v>
+        <v>-0.6444628238677979</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0180205255746841</v>
+        <v>1.021672129631042</v>
       </c>
       <c r="H17" t="n">
-        <v>0.06643159687519069</v>
+        <v>0.2196060568094253</v>
       </c>
     </row>
     <row r="18">
@@ -933,22 +933,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3.381656622886657</v>
+        <v>-1.743859815597524</v>
       </c>
       <c r="D18" t="n">
-        <v>7.120937466621399</v>
+        <v>8.946796488761919</v>
       </c>
       <c r="E18" t="n">
-        <v>-4.581331634521484</v>
+        <v>5.909892201423672</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.0386372283101081</v>
+        <v>-2.739730596542358</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0261144898831844</v>
+        <v>0.935998260974884</v>
       </c>
       <c r="H18" t="n">
-        <v>0.2403754740953445</v>
+        <v>-3.772856473922729</v>
       </c>
     </row>
     <row r="19">
@@ -961,22 +961,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2.801538753509521</v>
+        <v>-1.42204113006592</v>
       </c>
       <c r="D19" t="n">
-        <v>7.392663955688477</v>
+        <v>18.078337097168</v>
       </c>
       <c r="E19" t="n">
-        <v>-4.599455451965333</v>
+        <v>5.143125724792469</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0062613687478005</v>
+        <v>-0.8069530129432678</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1797471046447754</v>
+        <v>1.669800162315369</v>
       </c>
       <c r="H19" t="n">
-        <v>0.1189660057425499</v>
+        <v>-0.4091269969940185</v>
       </c>
     </row>
     <row r="20">
@@ -989,22 +989,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2.732593083381657</v>
+        <v>1.667438387870793</v>
       </c>
       <c r="D20" t="n">
-        <v>7.733071899414061</v>
+        <v>5.428582191467266</v>
       </c>
       <c r="E20" t="n">
-        <v>-4.365746712684627</v>
+        <v>1.3269031047821</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0025961773935705</v>
+        <v>0.0166460778564214</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.09178250283002851</v>
+        <v>-0.098960168659687</v>
       </c>
       <c r="H20" t="n">
-        <v>-0.0105374250560998</v>
+        <v>0.0592539273202419</v>
       </c>
     </row>
     <row r="21">
@@ -1017,22 +1017,302 @@
         </is>
       </c>
       <c r="C21" t="n">
+        <v>0.7794665813445962</v>
+      </c>
+      <c r="D21" t="n">
+        <v>4.995001316070575</v>
+      </c>
+      <c r="E21" t="n">
+        <v>-3.324089527130142</v>
+      </c>
+      <c r="F21" t="n">
+        <v>-0.0222965814173221</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.0245873257517814</v>
+      </c>
+      <c r="H21" t="n">
+        <v>-0.1383609771728515</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>2000</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>3.068378543853783</v>
+      </c>
+      <c r="D22" t="n">
+        <v>7.068177723884584</v>
+      </c>
+      <c r="E22" t="n">
+        <v>-4.896264028549195</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.0693332031369209</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.1020144969224929</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.0342084541916847</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>2100</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>3.911060714721674</v>
+      </c>
+      <c r="D23" t="n">
+        <v>7.258105087280274</v>
+      </c>
+      <c r="E23" t="n">
+        <v>-4.906297397613526</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.050854530185461</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.3074179291725158</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.2310597747564315</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>2200</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>3.277458310127258</v>
+      </c>
+      <c r="D24" t="n">
+        <v>7.035428524017331</v>
+      </c>
+      <c r="E24" t="n">
+        <v>-4.093589890003198</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.0531452745199203</v>
+      </c>
+      <c r="G24" t="n">
+        <v>-0.1438587605953216</v>
+      </c>
+      <c r="H24" t="n">
+        <v>-0.0389426611363887</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>2300</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>3.418862581253053</v>
+      </c>
+      <c r="D25" t="n">
+        <v>6.974825143814088</v>
+      </c>
+      <c r="E25" t="n">
+        <v>-4.04072964191437</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.0024434609804302</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.0180205255746841</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.06643159687519069</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>2400</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>3.381656622886657</v>
+      </c>
+      <c r="D26" t="n">
+        <v>7.120937466621399</v>
+      </c>
+      <c r="E26" t="n">
+        <v>-4.581331634521484</v>
+      </c>
+      <c r="F26" t="n">
+        <v>-0.0386372283101081</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.0261144898831844</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.2403754740953445</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>2500</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>2.801538753509521</v>
+      </c>
+      <c r="D27" t="n">
+        <v>7.392663955688477</v>
+      </c>
+      <c r="E27" t="n">
+        <v>-4.599455451965333</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.0062613687478005</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.1797471046447754</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.1189660057425499</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>2600</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>2.732593083381657</v>
+      </c>
+      <c r="D28" t="n">
+        <v>7.733071899414061</v>
+      </c>
+      <c r="E28" t="n">
+        <v>-4.365746712684627</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.0025961773935705</v>
+      </c>
+      <c r="G28" t="n">
+        <v>-0.09178250283002851</v>
+      </c>
+      <c r="H28" t="n">
+        <v>-0.0105374250560998</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>2700</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
         <v>3.0636076927185</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D29" t="n">
         <v>7.479286289215088</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E29" t="n">
         <v>-3.930359029769903</v>
       </c>
-      <c r="F21" t="n">
+      <c r="F29" t="n">
         <v>0.0099265603348612</v>
       </c>
-      <c r="G21" t="n">
+      <c r="G29" t="n">
         <v>0.0328340083360672</v>
       </c>
-      <c r="H21" t="n">
+      <c r="H29" t="n">
         <v>0.058643065392971</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>2800</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>2.46818006038666</v>
+      </c>
+      <c r="D30" t="n">
+        <v>7.359129667282104</v>
+      </c>
+      <c r="E30" t="n">
+        <v>-4.541467189788817</v>
+      </c>
+      <c r="F30" t="n">
+        <v>-0.0207694191485643</v>
+      </c>
+      <c r="G30" t="n">
+        <v>-0.0707076489925384</v>
+      </c>
+      <c r="H30" t="n">
+        <v>-0.09605856239795681</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>2900</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>3.081884574890136</v>
+      </c>
+      <c r="D31" t="n">
+        <v>7.212435054779053</v>
+      </c>
+      <c r="E31" t="n">
+        <v>-4.413347625732421</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.0001527163112768</v>
+      </c>
+      <c r="G31" t="n">
+        <v>-0.0478002056479454</v>
+      </c>
+      <c r="H31" t="n">
+        <v>-0.06643159687519069</v>
       </c>
     </row>
   </sheetData>
